--- a/IngredientsXNutrtion.xlsx
+++ b/IngredientsXNutrtion.xlsx
@@ -8,19 +8,55 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BirdBoxTreats\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500E89F-C725-4F15-A57D-779238E19552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB13BAA2-B755-4731-9BF7-2DB13B96C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>bobsRedMillwholeWheatPastryFlour</t>
   </si>
@@ -31,9 +67,6 @@
     <t>AlmondFlour</t>
   </si>
   <si>
-    <t>Oatmeal</t>
-  </si>
-  <si>
     <t>cocoaPowder</t>
   </si>
   <si>
@@ -49,9 +82,6 @@
     <t>PeaProteinPowder</t>
   </si>
   <si>
-    <t>soyProteinPowder</t>
-  </si>
-  <si>
     <t>brownRiceProteinPowder</t>
   </si>
   <si>
@@ -251,16 +281,119 @@
   </si>
   <si>
     <t>Serving Size (grams)</t>
+  </si>
+  <si>
+    <t>Niacin</t>
+  </si>
+  <si>
+    <t>Quaker Oats</t>
+  </si>
+  <si>
+    <t>magnessium(mg)</t>
+  </si>
+  <si>
+    <t>Phosphorus (mg)</t>
+  </si>
+  <si>
+    <t>Thiamin  (mg)</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Folate (mcg)</t>
+  </si>
+  <si>
+    <t>soyProteinPowder Isolate</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bobsRedMillWholeWheat </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>vegan butter</t>
+  </si>
+  <si>
+    <t>1 cup coconut oil</t>
+  </si>
+  <si>
+    <t>1/4 cup rapeseed oil</t>
+  </si>
+  <si>
+    <t>2 Tbs Nutritional yeast</t>
+  </si>
+  <si>
+    <t>nutrional yeast</t>
+  </si>
+  <si>
+    <t>yest in v butter</t>
+  </si>
+  <si>
+    <t>rapeseed oil in V butter</t>
+  </si>
+  <si>
+    <t>0.4 cups</t>
+  </si>
+  <si>
+    <t>1/4 cups want to know how many 0.4 cups get us a 1/4 cup</t>
+  </si>
+  <si>
+    <t>(1/4)/0.4</t>
+  </si>
+  <si>
+    <t>cocnut oil in V Butter</t>
+  </si>
+  <si>
+    <t>Total Values in V Butter</t>
+  </si>
+  <si>
+    <t>Values in 1 TB V Butter</t>
+  </si>
+  <si>
+    <t>1/16 = 1.375/x</t>
+  </si>
+  <si>
+    <t>rapseed oil1</t>
+  </si>
+  <si>
+    <t>rapseed oil balance</t>
+  </si>
+  <si>
+    <t>1%DV</t>
+  </si>
+  <si>
+    <t>2%DV</t>
+  </si>
+  <si>
+    <t>4%DV</t>
+  </si>
+  <si>
+    <t>5%DV</t>
+  </si>
+  <si>
+    <t>10%DV</t>
+  </si>
+  <si>
+    <t>6%DV</t>
+  </si>
+  <si>
+    <t>3%DV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +415,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -322,20 +461,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -640,17 +793,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CC60"/>
+  <dimension ref="A1:CC88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
@@ -658,7 +812,7 @@
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
@@ -666,68 +820,82 @@
     <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
@@ -790,21 +958,155 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>99</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>111</v>
+      </c>
+      <c r="T2">
+        <v>99</v>
+      </c>
+      <c r="U2">
+        <v>99</v>
+      </c>
+      <c r="V2">
+        <v>99</v>
+      </c>
+      <c r="W2">
+        <v>99</v>
+      </c>
+      <c r="X2">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <v>99</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>99</v>
+      </c>
+      <c r="R3">
+        <v>1.5</v>
+      </c>
+      <c r="S3">
+        <v>0.1</v>
+      </c>
+      <c r="T3">
+        <v>0.2</v>
+      </c>
+      <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
+        <v>90</v>
+      </c>
+      <c r="W3">
+        <v>99</v>
+      </c>
+      <c r="X3">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>0.25</v>
       </c>
       <c r="C4" s="3">
@@ -831,7 +1133,7 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="13">
         <v>6</v>
       </c>
       <c r="L4">
@@ -858,400 +1160,5215 @@
       <c r="S4">
         <v>200</v>
       </c>
+      <c r="T4">
+        <v>99</v>
+      </c>
+      <c r="U4">
+        <v>99</v>
+      </c>
+      <c r="V4">
+        <v>99</v>
+      </c>
+      <c r="W4">
+        <v>99</v>
+      </c>
+      <c r="X4">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>1.5</v>
+      </c>
+      <c r="S5">
+        <v>150</v>
+      </c>
+      <c r="T5">
+        <v>0.2</v>
+      </c>
+      <c r="U5">
+        <v>99</v>
+      </c>
+      <c r="V5">
+        <v>99</v>
+      </c>
+      <c r="W5">
+        <v>130</v>
+      </c>
+      <c r="X5">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <v>99</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>99</v>
+      </c>
+      <c r="U7">
+        <v>99</v>
+      </c>
+      <c r="V7">
+        <v>99</v>
+      </c>
+      <c r="W7">
+        <v>99</v>
+      </c>
+      <c r="X7">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>99</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1.3</v>
+      </c>
+      <c r="S8">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>0.25</v>
+      </c>
+      <c r="U8">
+        <v>1.9</v>
+      </c>
+      <c r="V8">
+        <v>80</v>
+      </c>
+      <c r="W8">
+        <v>99</v>
+      </c>
+      <c r="X8">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>99</v>
+      </c>
+      <c r="H9">
+        <v>99</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>58</v>
+      </c>
+      <c r="T9">
+        <v>0.2</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>127</v>
+      </c>
+      <c r="W9">
+        <v>99</v>
+      </c>
+      <c r="X9">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>3.5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>99</v>
+      </c>
+      <c r="H10">
+        <v>99</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>190</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>48</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>99</v>
+      </c>
+      <c r="U10">
+        <v>99</v>
+      </c>
+      <c r="V10">
+        <v>99</v>
+      </c>
+      <c r="W10">
+        <v>99</v>
+      </c>
+      <c r="X10">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>99</v>
+      </c>
+      <c r="H11">
+        <v>99</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>220</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>27</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S11">
+        <v>25</v>
+      </c>
+      <c r="T11">
+        <v>99</v>
+      </c>
+      <c r="U11">
+        <v>99</v>
+      </c>
+      <c r="V11">
+        <v>99</v>
+      </c>
+      <c r="W11">
+        <v>99</v>
+      </c>
+      <c r="X11">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>99</v>
+      </c>
+      <c r="H12">
+        <v>99</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>0.3</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>99</v>
+      </c>
+      <c r="U12">
+        <v>99</v>
+      </c>
+      <c r="V12">
+        <v>99</v>
+      </c>
+      <c r="W12">
+        <v>99</v>
+      </c>
+      <c r="X12">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>230</v>
+      </c>
+      <c r="K13" s="13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>23</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>270</v>
+      </c>
+      <c r="T13">
+        <v>99</v>
+      </c>
+      <c r="U13">
+        <v>99</v>
+      </c>
+      <c r="V13">
+        <v>99</v>
+      </c>
+      <c r="W13">
+        <v>99</v>
+      </c>
+      <c r="X13">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <f>(1/8)*(1/48)</f>
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>99</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <v>99</v>
+      </c>
+      <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>99</v>
+      </c>
+      <c r="Q14">
+        <v>99</v>
+      </c>
+      <c r="R14">
+        <v>99</v>
+      </c>
+      <c r="S14">
+        <v>99</v>
+      </c>
+      <c r="T14">
+        <v>99</v>
+      </c>
+      <c r="U14">
+        <v>99</v>
+      </c>
+      <c r="V14">
+        <v>99</v>
+      </c>
+      <c r="W14">
+        <v>99</v>
+      </c>
+      <c r="X14">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <f>(1/8)*(1/48)</f>
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>99</v>
+      </c>
+      <c r="J15">
+        <v>60</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>99</v>
+      </c>
+      <c r="Q15">
+        <v>99</v>
+      </c>
+      <c r="R15">
+        <v>99</v>
+      </c>
+      <c r="S15">
+        <v>99</v>
+      </c>
+      <c r="T15">
+        <v>99</v>
+      </c>
+      <c r="U15">
+        <v>99</v>
+      </c>
+      <c r="V15">
+        <v>99</v>
+      </c>
+      <c r="W15">
+        <v>99</v>
+      </c>
+      <c r="X15">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>0.22</v>
+      </c>
+      <c r="E16">
+        <v>99</v>
+      </c>
+      <c r="F16">
+        <v>99</v>
+      </c>
+      <c r="G16">
+        <v>0.03</v>
+      </c>
+      <c r="H16">
+        <v>0.04</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.77</v>
+      </c>
+      <c r="K16" s="13">
+        <v>5.43</v>
+      </c>
+      <c r="L16">
+        <v>3.69</v>
+      </c>
+      <c r="M16">
+        <v>0.15</v>
+      </c>
+      <c r="N16">
+        <v>99</v>
+      </c>
+      <c r="O16">
+        <v>0.26</v>
+      </c>
+      <c r="P16">
+        <v>99</v>
+      </c>
+      <c r="Q16">
+        <v>83.5</v>
+      </c>
+      <c r="R16">
+        <v>2.59</v>
+      </c>
+      <c r="S16">
+        <v>34</v>
+      </c>
+      <c r="T16">
+        <v>0.01</v>
+      </c>
+      <c r="U16">
+        <v>0.09</v>
+      </c>
+      <c r="V16">
+        <v>1.97</v>
+      </c>
+      <c r="W16">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="X16">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>2.5</v>
+      </c>
+      <c r="E17">
+        <v>1.8</v>
+      </c>
+      <c r="F17">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>99</v>
+      </c>
+      <c r="H17">
+        <v>99</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="L17">
+        <v>1.5</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>99</v>
+      </c>
+      <c r="O17">
+        <v>0.4</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S17">
+        <v>99</v>
+      </c>
+      <c r="T17">
+        <v>99</v>
+      </c>
+      <c r="U17">
+        <v>99</v>
+      </c>
+      <c r="V17">
+        <v>99</v>
+      </c>
+      <c r="W17">
+        <v>99</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>99</v>
+      </c>
+      <c r="G18">
+        <v>99</v>
+      </c>
+      <c r="H18">
+        <v>99</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>1.6</v>
+      </c>
+      <c r="M18">
+        <v>99</v>
+      </c>
+      <c r="N18">
+        <v>99</v>
+      </c>
+      <c r="O18">
+        <v>0.6</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18">
+        <v>99</v>
+      </c>
+      <c r="T18">
+        <v>99</v>
+      </c>
+      <c r="U18">
+        <v>99</v>
+      </c>
+      <c r="V18">
+        <v>99</v>
+      </c>
+      <c r="W18">
+        <v>99</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>260</v>
+      </c>
+      <c r="K19" s="13">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>99</v>
+      </c>
+      <c r="T19">
+        <v>99</v>
+      </c>
+      <c r="U19">
+        <v>99</v>
+      </c>
+      <c r="V19">
+        <v>99</v>
+      </c>
+      <c r="W19">
+        <v>99</v>
+      </c>
+      <c r="X19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>99</v>
+      </c>
+      <c r="G20">
+        <v>99</v>
+      </c>
+      <c r="H20">
+        <v>99</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2325</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>99</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>99</v>
+      </c>
+      <c r="T20">
+        <v>99</v>
+      </c>
+      <c r="U20">
+        <v>99</v>
+      </c>
+      <c r="V20">
+        <v>99</v>
+      </c>
+      <c r="W20">
+        <v>99</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>99</v>
+      </c>
+      <c r="H21">
+        <v>99</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>27</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>560</v>
+      </c>
+      <c r="T21">
+        <v>99</v>
+      </c>
+      <c r="U21">
+        <v>99</v>
+      </c>
+      <c r="V21">
+        <v>99</v>
+      </c>
+      <c r="W21">
+        <v>99</v>
+      </c>
+      <c r="X21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>99</v>
+      </c>
+      <c r="G22">
+        <v>99</v>
+      </c>
+      <c r="H22">
+        <v>99</v>
+      </c>
+      <c r="I22">
+        <v>99</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>99</v>
+      </c>
+      <c r="M22">
+        <v>99</v>
+      </c>
+      <c r="N22">
+        <v>99</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>99</v>
+      </c>
+      <c r="Q22">
+        <v>99</v>
+      </c>
+      <c r="R22">
+        <v>99</v>
+      </c>
+      <c r="S22">
+        <v>99</v>
+      </c>
+      <c r="T22">
+        <v>99</v>
+      </c>
+      <c r="U22">
+        <v>99</v>
+      </c>
+      <c r="V22">
+        <v>99</v>
+      </c>
+      <c r="W22">
+        <v>99</v>
+      </c>
+      <c r="X22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>99</v>
+      </c>
+      <c r="G23">
+        <v>99</v>
+      </c>
+      <c r="H23">
+        <v>99</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.5</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>99</v>
+      </c>
+      <c r="H24">
+        <v>99</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>99</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="8">
+        <v>99</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>99</v>
+      </c>
+      <c r="H25">
+        <v>99</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>99</v>
+      </c>
+      <c r="F26">
+        <v>99</v>
+      </c>
+      <c r="G26">
+        <v>99</v>
+      </c>
+      <c r="H26">
+        <v>99</v>
+      </c>
+      <c r="I26">
+        <v>99</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26" s="13">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>99</v>
+      </c>
+      <c r="M26">
+        <v>99</v>
+      </c>
+      <c r="N26">
+        <v>99</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>99</v>
+      </c>
+      <c r="Q26">
+        <v>99</v>
+      </c>
+      <c r="R26">
+        <v>99</v>
+      </c>
+      <c r="S26">
+        <v>99</v>
+      </c>
+      <c r="T26">
+        <v>99</v>
+      </c>
+      <c r="U26">
+        <v>99</v>
+      </c>
+      <c r="V26">
+        <v>99</v>
+      </c>
+      <c r="W26">
+        <v>99</v>
+      </c>
+      <c r="X26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <v>99</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>320</v>
+      </c>
+      <c r="K27" s="13">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>15</v>
+      </c>
+      <c r="T27">
+        <v>99</v>
+      </c>
+      <c r="U27">
+        <v>99</v>
+      </c>
+      <c r="V27">
+        <v>99</v>
+      </c>
+      <c r="W27">
+        <v>99</v>
+      </c>
+      <c r="X27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="C28" s="3">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>3.5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>20</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>108</v>
+      </c>
+      <c r="T28">
+        <v>99</v>
+      </c>
+      <c r="U28">
+        <v>99</v>
+      </c>
+      <c r="V28">
+        <v>99</v>
+      </c>
+      <c r="W28">
+        <v>99</v>
+      </c>
+      <c r="X28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="8">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="C30" s="3">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>132</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>198</v>
+      </c>
+      <c r="T30">
+        <v>99</v>
+      </c>
+      <c r="U30">
+        <v>99</v>
+      </c>
+      <c r="V30">
+        <v>99</v>
+      </c>
+      <c r="W30">
+        <v>99</v>
+      </c>
+      <c r="X30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="8">
+        <f>(1/16)*(1/2)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>99</v>
+      </c>
+      <c r="F31">
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>99</v>
+      </c>
+      <c r="H31">
+        <v>99</v>
+      </c>
+      <c r="I31">
+        <v>99</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>99</v>
+      </c>
+      <c r="M31">
+        <v>99</v>
+      </c>
+      <c r="N31">
+        <v>99</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>99</v>
+      </c>
+      <c r="R31">
+        <v>99</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>99</v>
+      </c>
+      <c r="U31">
+        <v>99</v>
+      </c>
+      <c r="V31">
+        <v>999</v>
+      </c>
+      <c r="W31">
+        <v>99</v>
+      </c>
+      <c r="X31">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>99</v>
+      </c>
+      <c r="H32">
+        <v>99</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>99</v>
+      </c>
+      <c r="U32">
+        <v>99</v>
+      </c>
+      <c r="V32">
+        <v>99</v>
+      </c>
+      <c r="W32">
+        <v>99</v>
+      </c>
+      <c r="X32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="8">
+        <f>(1/16)*(2/3)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <v>99</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
+        <v>8</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>99</v>
+      </c>
+      <c r="U33">
+        <v>99</v>
+      </c>
+      <c r="V33">
+        <v>99</v>
+      </c>
+      <c r="W33">
+        <v>99</v>
+      </c>
+      <c r="X33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="8">
+        <f>(1/16)*(1/2)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>99</v>
+      </c>
+      <c r="F34">
+        <v>99</v>
+      </c>
+      <c r="G34">
+        <v>99</v>
+      </c>
+      <c r="H34">
+        <v>99</v>
+      </c>
+      <c r="I34">
+        <v>99</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>99</v>
+      </c>
+      <c r="M34">
+        <v>99</v>
+      </c>
+      <c r="N34">
+        <v>99</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>99</v>
+      </c>
+      <c r="R34">
+        <v>99</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>99</v>
+      </c>
+      <c r="U34">
+        <v>99</v>
+      </c>
+      <c r="V34">
+        <v>999</v>
+      </c>
+      <c r="W34">
+        <v>99</v>
+      </c>
+      <c r="X34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="8">
+        <f>(1/16)*(2/3)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>99</v>
+      </c>
+      <c r="H35">
+        <v>99</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>99</v>
+      </c>
+      <c r="U35">
+        <v>99</v>
+      </c>
+      <c r="V35">
+        <v>99</v>
+      </c>
+      <c r="W35">
+        <v>99</v>
+      </c>
+      <c r="X35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="8">
+        <f>(1/16)*(2/3)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.7</v>
+      </c>
+      <c r="K36" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>5.8</v>
+      </c>
+      <c r="N36">
+        <v>5.8</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>99</v>
+      </c>
+      <c r="U36">
+        <v>99</v>
+      </c>
+      <c r="V36">
+        <v>99</v>
+      </c>
+      <c r="W36">
+        <v>99</v>
+      </c>
+      <c r="X36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="8">
+        <f>(1/16)*(1/2)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>99</v>
+      </c>
+      <c r="F37">
+        <v>99</v>
+      </c>
+      <c r="G37">
+        <v>99</v>
+      </c>
+      <c r="H37">
+        <v>99</v>
+      </c>
+      <c r="I37">
+        <v>99</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>99</v>
+      </c>
+      <c r="M37">
+        <v>99</v>
+      </c>
+      <c r="N37">
+        <v>99</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>99</v>
+      </c>
+      <c r="R37">
+        <v>99</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>99</v>
+      </c>
+      <c r="U37">
+        <v>99</v>
+      </c>
+      <c r="V37">
+        <v>999</v>
+      </c>
+      <c r="W37">
+        <v>99</v>
+      </c>
+      <c r="X37">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="8">
+        <f>(1/16)*(2/3)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>99</v>
+      </c>
+      <c r="H38">
+        <v>99</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>99</v>
+      </c>
+      <c r="U38">
+        <v>99</v>
+      </c>
+      <c r="V38">
+        <v>999</v>
+      </c>
+      <c r="W38">
+        <v>99</v>
+      </c>
+      <c r="X38">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>99</v>
+      </c>
+      <c r="H39">
+        <v>99</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>99</v>
+      </c>
+      <c r="U39">
+        <v>99</v>
+      </c>
+      <c r="V39">
+        <v>99</v>
+      </c>
+      <c r="W39">
+        <v>99</v>
+      </c>
+      <c r="X39">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>99</v>
+      </c>
+      <c r="F40">
+        <v>99</v>
+      </c>
+      <c r="G40">
+        <v>99</v>
+      </c>
+      <c r="H40">
+        <v>99</v>
+      </c>
+      <c r="I40">
+        <v>99</v>
+      </c>
+      <c r="J40">
+        <v>99</v>
+      </c>
+      <c r="K40" s="13">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>99</v>
+      </c>
+      <c r="Q40">
+        <v>99</v>
+      </c>
+      <c r="R40">
+        <v>99</v>
+      </c>
+      <c r="S40">
+        <v>99</v>
+      </c>
+      <c r="T40">
+        <v>99</v>
+      </c>
+      <c r="U40">
+        <v>99</v>
+      </c>
+      <c r="V40">
+        <v>99</v>
+      </c>
+      <c r="W40">
+        <v>99</v>
+      </c>
+      <c r="X40">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>99</v>
+      </c>
+      <c r="F41">
+        <v>99</v>
+      </c>
+      <c r="G41">
+        <v>99</v>
+      </c>
+      <c r="H41">
+        <v>99</v>
+      </c>
+      <c r="I41">
+        <v>99</v>
+      </c>
+      <c r="J41">
+        <v>99</v>
+      </c>
+      <c r="K41" s="13">
+        <v>8</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>99</v>
+      </c>
+      <c r="Q41">
+        <v>99</v>
+      </c>
+      <c r="R41">
+        <v>99</v>
+      </c>
+      <c r="S41">
+        <v>99</v>
+      </c>
+      <c r="T41">
+        <v>99</v>
+      </c>
+      <c r="U41">
+        <v>99</v>
+      </c>
+      <c r="V41">
+        <v>99</v>
+      </c>
+      <c r="W41">
+        <v>99</v>
+      </c>
+      <c r="X41">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>99</v>
+      </c>
+      <c r="F42">
+        <v>99</v>
+      </c>
+      <c r="G42">
+        <v>99</v>
+      </c>
+      <c r="H42">
+        <v>99</v>
+      </c>
+      <c r="I42">
+        <v>99</v>
+      </c>
+      <c r="J42">
+        <v>99</v>
+      </c>
+      <c r="K42" s="13">
+        <v>8</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>99</v>
+      </c>
+      <c r="Q42">
+        <v>99</v>
+      </c>
+      <c r="R42">
+        <v>99</v>
+      </c>
+      <c r="S42">
+        <v>99</v>
+      </c>
+      <c r="T42">
+        <v>99</v>
+      </c>
+      <c r="U42">
+        <v>99</v>
+      </c>
+      <c r="V42">
+        <v>99</v>
+      </c>
+      <c r="W42">
+        <v>99</v>
+      </c>
+      <c r="X42">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="8">
+        <f>(1/16)*(1/3)*(3/4)</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>99</v>
+      </c>
+      <c r="E43">
+        <v>99</v>
+      </c>
+      <c r="F43">
+        <v>99</v>
+      </c>
+      <c r="G43">
+        <v>99</v>
+      </c>
+      <c r="H43">
+        <v>99</v>
+      </c>
+      <c r="I43">
+        <v>99</v>
+      </c>
+      <c r="J43">
+        <v>99</v>
+      </c>
+      <c r="K43">
+        <v>99</v>
+      </c>
+      <c r="L43">
+        <v>99</v>
+      </c>
+      <c r="M43">
+        <v>99</v>
+      </c>
+      <c r="N43">
+        <v>99</v>
+      </c>
+      <c r="O43">
+        <v>99</v>
+      </c>
+      <c r="P43">
+        <v>99</v>
+      </c>
+      <c r="Q43">
+        <v>99</v>
+      </c>
+      <c r="R43">
+        <v>99</v>
+      </c>
+      <c r="S43">
+        <v>99</v>
+      </c>
+      <c r="T43">
+        <v>99</v>
+      </c>
+      <c r="U43">
+        <v>99</v>
+      </c>
+      <c r="V43">
+        <v>99</v>
+      </c>
+      <c r="W43">
+        <v>99</v>
+      </c>
+      <c r="X43">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>99</v>
+      </c>
+      <c r="U44">
+        <v>99</v>
+      </c>
+      <c r="V44">
+        <v>99</v>
+      </c>
+      <c r="W44">
+        <v>99</v>
+      </c>
+      <c r="X44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="13">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>99</v>
+      </c>
+      <c r="Q45">
+        <v>99</v>
+      </c>
+      <c r="R45">
+        <v>99</v>
+      </c>
+      <c r="S45">
+        <v>99</v>
+      </c>
+      <c r="T45">
+        <v>99</v>
+      </c>
+      <c r="U45">
+        <v>99</v>
+      </c>
+      <c r="V45">
+        <v>99</v>
+      </c>
+      <c r="W45">
+        <v>99</v>
+      </c>
+      <c r="X45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B46" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="13">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>99</v>
+      </c>
+      <c r="M46">
+        <v>99</v>
+      </c>
+      <c r="N46">
+        <v>99</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>99</v>
+      </c>
+      <c r="Q46">
+        <v>99</v>
+      </c>
+      <c r="R46">
+        <v>99</v>
+      </c>
+      <c r="S46">
+        <v>99</v>
+      </c>
+      <c r="T46">
+        <v>99</v>
+      </c>
+      <c r="U46">
+        <v>99</v>
+      </c>
+      <c r="V46">
+        <v>99</v>
+      </c>
+      <c r="W46">
+        <v>99</v>
+      </c>
+      <c r="X46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>99</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" s="13">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>99</v>
+      </c>
+      <c r="M47">
+        <v>99</v>
+      </c>
+      <c r="N47">
+        <v>99</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>99</v>
+      </c>
+      <c r="Q47">
+        <v>99</v>
+      </c>
+      <c r="R47">
+        <v>99</v>
+      </c>
+      <c r="S47">
+        <v>99</v>
+      </c>
+      <c r="T47">
+        <v>99</v>
+      </c>
+      <c r="U47">
+        <v>99</v>
+      </c>
+      <c r="V47">
+        <v>99</v>
+      </c>
+      <c r="W47">
+        <v>99</v>
+      </c>
+      <c r="X47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B48" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>2.5</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>99</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>99</v>
+      </c>
+      <c r="M48">
+        <v>99</v>
+      </c>
+      <c r="N48">
+        <v>99</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>99</v>
+      </c>
+      <c r="Q48">
+        <v>99</v>
+      </c>
+      <c r="R48">
+        <v>99</v>
+      </c>
+      <c r="S48">
+        <v>99</v>
+      </c>
+      <c r="T48">
+        <v>99</v>
+      </c>
+      <c r="U48">
+        <v>99</v>
+      </c>
+      <c r="V48">
+        <v>99</v>
+      </c>
+      <c r="W48">
+        <v>99</v>
+      </c>
+      <c r="X48">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B49" s="8">
+        <v>99</v>
+      </c>
+      <c r="C49" s="3">
+        <v>99</v>
+      </c>
+      <c r="D49">
+        <v>99</v>
+      </c>
+      <c r="E49">
+        <v>99</v>
+      </c>
+      <c r="F49">
+        <v>99</v>
+      </c>
+      <c r="G49">
+        <v>99</v>
+      </c>
+      <c r="H49">
+        <v>99</v>
+      </c>
+      <c r="I49">
+        <v>99</v>
+      </c>
+      <c r="J49">
+        <v>99</v>
+      </c>
+      <c r="K49" s="13">
+        <v>99</v>
+      </c>
+      <c r="L49">
+        <v>99</v>
+      </c>
+      <c r="M49">
+        <v>99</v>
+      </c>
+      <c r="N49">
+        <v>99</v>
+      </c>
+      <c r="O49">
+        <v>99</v>
+      </c>
+      <c r="P49">
+        <v>99</v>
+      </c>
+      <c r="Q49">
+        <v>99</v>
+      </c>
+      <c r="R49">
+        <v>99</v>
+      </c>
+      <c r="S49">
+        <v>99</v>
+      </c>
+      <c r="T49">
+        <v>99</v>
+      </c>
+      <c r="U49">
+        <v>99</v>
+      </c>
+      <c r="V49">
+        <v>99</v>
+      </c>
+      <c r="W49">
+        <v>99</v>
+      </c>
+      <c r="X49">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B50" s="9" cm="1">
+        <f t="array" ref="B50:X50">(1/22)*_xlfn.ANCHORARRAY(Sheet2!$B$13)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C50">
+        <v>11.777105823863637</v>
+      </c>
+      <c r="D50">
+        <v>11.286536931818182</v>
+      </c>
+      <c r="E50">
+        <v>9.454545454545455</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>9.7272727272727284</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="K50" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L50">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="P50">
+        <v>72</v>
+      </c>
+      <c r="Q50">
+        <v>72</v>
+      </c>
+      <c r="R50">
+        <v>72.027272727272731</v>
+      </c>
+      <c r="S50">
+        <v>82</v>
+      </c>
+      <c r="T50">
+        <v>72.281818181818181</v>
+      </c>
+      <c r="U50">
+        <v>73.590909090909093</v>
+      </c>
+      <c r="V50">
+        <v>108.36363636363636</v>
+      </c>
+      <c r="W50">
+        <v>81</v>
+      </c>
+      <c r="X50">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B51" s="9" cm="1">
+        <f t="array" ref="B51:X51">(1/22)*_xlfn.ANCHORARRAY(Sheet2!$B$13)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C51">
+        <v>11.777105823863637</v>
+      </c>
+      <c r="D51">
+        <v>11.286536931818182</v>
+      </c>
+      <c r="E51">
+        <v>9.454545454545455</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>9.7272727272727284</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="K51" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L51">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="P51">
+        <v>72</v>
+      </c>
+      <c r="Q51">
+        <v>72</v>
+      </c>
+      <c r="R51">
+        <v>72.027272727272731</v>
+      </c>
+      <c r="S51">
+        <v>82</v>
+      </c>
+      <c r="T51">
+        <v>72.281818181818181</v>
+      </c>
+      <c r="U51">
+        <v>73.590909090909093</v>
+      </c>
+      <c r="V51">
+        <v>108.36363636363636</v>
+      </c>
+      <c r="W51">
+        <v>81</v>
+      </c>
+      <c r="X51">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B52" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="C52" s="3">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>99</v>
+      </c>
+      <c r="H52">
+        <v>99</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>95</v>
+      </c>
+      <c r="K52" s="13">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>8</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T52">
+        <v>99</v>
+      </c>
+      <c r="U52">
+        <v>99</v>
+      </c>
+      <c r="V52">
+        <v>99</v>
+      </c>
+      <c r="W52">
+        <v>99</v>
+      </c>
+      <c r="X52">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B53" s="8">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="13">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>99</v>
+      </c>
+      <c r="F54">
+        <v>99</v>
+      </c>
+      <c r="G54">
+        <v>99</v>
+      </c>
+      <c r="H54">
+        <v>99</v>
+      </c>
+      <c r="I54">
+        <v>99</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54" s="13">
+        <v>16</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>15</v>
+      </c>
+      <c r="N54">
+        <v>99</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>30</v>
+      </c>
+      <c r="R54">
+        <v>0.7</v>
+      </c>
+      <c r="S54">
+        <v>200</v>
+      </c>
+      <c r="T54">
+        <v>99</v>
+      </c>
+      <c r="U54">
+        <v>99</v>
+      </c>
+      <c r="V54">
+        <v>99</v>
+      </c>
+      <c r="W54">
+        <v>99</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="8">
+        <v>99</v>
+      </c>
+      <c r="C55" s="3">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>4.5</v>
+      </c>
+      <c r="E55">
+        <v>2.5</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>99</v>
+      </c>
+      <c r="H55">
+        <v>99</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="13">
+        <v>10</v>
+      </c>
+      <c r="L55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M55">
+        <v>8</v>
+      </c>
+      <c r="N55">
+        <v>8</v>
+      </c>
+      <c r="O55" t="s">
+        <v>83</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>6</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>51</v>
+      </c>
+      <c r="T55">
+        <v>99</v>
+      </c>
+      <c r="U55">
+        <v>99</v>
+      </c>
+      <c r="V55">
+        <v>99</v>
+      </c>
+      <c r="W55">
+        <v>99</v>
+      </c>
+      <c r="X55">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B56" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>99</v>
+      </c>
+      <c r="H56">
+        <v>99</v>
+      </c>
+      <c r="I56">
+        <v>30</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="13">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>99</v>
+      </c>
+      <c r="U56">
+        <v>99</v>
+      </c>
+      <c r="V56">
+        <v>99</v>
+      </c>
+      <c r="W56">
+        <v>99</v>
+      </c>
+      <c r="X56">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B57" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="C57" s="3">
+        <v>32</v>
+      </c>
+      <c r="D57">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>99</v>
+      </c>
+      <c r="H57">
+        <v>99</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>110</v>
+      </c>
+      <c r="K57" s="13">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>83</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T57">
+        <v>99</v>
+      </c>
+      <c r="U57">
+        <v>99</v>
+      </c>
+      <c r="V57">
+        <v>99</v>
+      </c>
+      <c r="W57">
+        <v>99</v>
+      </c>
+      <c r="X57">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B58" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="C58" s="3">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>99</v>
+      </c>
+      <c r="H58">
+        <v>99</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>105</v>
+      </c>
+      <c r="K58" s="13">
+        <v>7</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>8</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>18</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>201</v>
+      </c>
+      <c r="T58">
+        <v>99</v>
+      </c>
+      <c r="U58">
+        <v>99</v>
+      </c>
+      <c r="V58">
+        <v>99</v>
+      </c>
+      <c r="W58">
+        <v>99</v>
+      </c>
+      <c r="X58">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="B59" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D59">
+        <v>0.9</v>
+      </c>
+      <c r="E59">
+        <v>0.3</v>
+      </c>
+      <c r="F59">
+        <v>99</v>
+      </c>
+      <c r="G59">
+        <v>99</v>
+      </c>
+      <c r="H59">
+        <v>99</v>
+      </c>
+      <c r="I59">
+        <v>32</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>99</v>
+      </c>
+      <c r="O59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>11</v>
+      </c>
+      <c r="T59">
+        <v>99</v>
+      </c>
+      <c r="U59">
+        <v>99</v>
+      </c>
+      <c r="V59">
+        <v>99</v>
+      </c>
+      <c r="W59">
+        <v>99</v>
+      </c>
+      <c r="X59">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
+      <c r="B60" s="8">
+        <v>99</v>
+      </c>
+      <c r="C60" s="3">
+        <v>99</v>
+      </c>
+      <c r="D60">
+        <v>99</v>
+      </c>
+      <c r="E60">
+        <v>99</v>
+      </c>
+      <c r="F60">
+        <v>99</v>
+      </c>
+      <c r="G60">
+        <v>99</v>
+      </c>
+      <c r="H60">
+        <v>99</v>
+      </c>
+      <c r="I60">
+        <v>99</v>
+      </c>
+      <c r="J60">
+        <v>99</v>
+      </c>
+      <c r="K60" s="13">
+        <v>99</v>
+      </c>
+      <c r="L60">
+        <v>99</v>
+      </c>
+      <c r="M60">
+        <v>99</v>
+      </c>
+      <c r="N60">
+        <v>99</v>
+      </c>
+      <c r="O60">
+        <v>99</v>
+      </c>
+      <c r="P60">
+        <v>99</v>
+      </c>
+      <c r="Q60">
+        <v>99</v>
+      </c>
+      <c r="R60">
+        <v>99</v>
+      </c>
+      <c r="S60">
+        <v>99</v>
+      </c>
+      <c r="T60">
+        <v>99</v>
+      </c>
+      <c r="U60">
+        <v>99</v>
+      </c>
+      <c r="V60">
+        <v>99</v>
+      </c>
+      <c r="W60">
+        <v>99</v>
+      </c>
+      <c r="X60">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>0.42267500000000002</v>
+      </c>
+      <c r="C61">
+        <v>95</v>
+      </c>
+      <c r="D61">
+        <v>92</v>
+      </c>
+      <c r="E61">
+        <v>6.7</v>
+      </c>
+      <c r="F61">
+        <v>99</v>
+      </c>
+      <c r="G61">
+        <v>99</v>
+      </c>
+      <c r="H61">
+        <v>99</v>
+      </c>
+      <c r="I61">
+        <v>99</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" s="13">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>99</v>
+      </c>
+      <c r="M61">
+        <v>99</v>
+      </c>
+      <c r="N61">
+        <v>99</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>99</v>
+      </c>
+      <c r="Q61">
+        <v>99</v>
+      </c>
+      <c r="R61">
+        <v>99</v>
+      </c>
+      <c r="S61">
+        <v>99</v>
+      </c>
+      <c r="T61">
+        <v>99</v>
+      </c>
+      <c r="U61">
+        <v>99</v>
+      </c>
+      <c r="V61">
+        <v>99</v>
+      </c>
+      <c r="W61">
+        <v>99</v>
+      </c>
+      <c r="X61">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>99</v>
+      </c>
+      <c r="H62">
+        <v>99</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62" s="13">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0.3</v>
+      </c>
+      <c r="S62">
+        <v>110</v>
+      </c>
+      <c r="T62">
+        <v>3.1</v>
+      </c>
+      <c r="U62">
+        <v>17.5</v>
+      </c>
+      <c r="V62">
+        <v>400</v>
+      </c>
+      <c r="W62">
+        <v>99</v>
+      </c>
+      <c r="X62">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63">
+        <v>0.42267500000000002</v>
+      </c>
+      <c r="C63" cm="1">
+        <f t="array" ref="C63:D63">B63*C61:D61</f>
+        <v>40.154125000000001</v>
+      </c>
+      <c r="D63">
+        <v>38.886099999999999</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="13">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C64" s="3">
+        <v>38</v>
+      </c>
+      <c r="D64">
+        <v>0.5</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>99</v>
+      </c>
+      <c r="H64">
+        <v>99</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="13">
+        <v>27</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>6</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>16</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S64">
+        <v>147</v>
+      </c>
+      <c r="T64">
+        <v>99</v>
+      </c>
+      <c r="U64">
+        <v>99</v>
+      </c>
+      <c r="V64">
+        <v>99</v>
+      </c>
+      <c r="W64">
+        <v>99</v>
+      </c>
+      <c r="X64">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K86"/>
+      <c r="M86" s="11"/>
+    </row>
+    <row r="87" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K88"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAABC4F-A3A4-47BA-9A6D-EC57E998CB5A}">
+  <dimension ref="A1:CC28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="9">
+        <f>0.0625*2</f>
+        <v>0.125</v>
+      </c>
+      <c r="C9" s="9" cm="1">
+        <f t="array" ref="C9:X9">2*(Sheet1!C62:X62)</f>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>198</v>
+      </c>
+      <c r="H9">
+        <v>198</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="13">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.6</v>
+      </c>
+      <c r="S9">
+        <v>220</v>
+      </c>
+      <c r="T9">
+        <v>6.2</v>
+      </c>
+      <c r="U9">
+        <v>35</v>
+      </c>
+      <c r="V9">
+        <v>800</v>
+      </c>
+      <c r="W9">
+        <v>198</v>
+      </c>
+      <c r="X9">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10:X10">0.625*(Sheet1!C63:X63)</f>
+        <v>25.096328124999999</v>
+      </c>
+      <c r="D10">
+        <v>24.303812499999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="9" cm="1">
+        <f t="array" ref="B11:X11">16*(Sheet1!B45:X45)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>224</v>
+      </c>
+      <c r="D11">
+        <v>224</v>
+      </c>
+      <c r="E11">
+        <v>208</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1584</v>
+      </c>
+      <c r="Q11">
+        <v>1584</v>
+      </c>
+      <c r="R11">
+        <v>1584</v>
+      </c>
+      <c r="S11">
+        <v>1584</v>
+      </c>
+      <c r="T11">
+        <v>1584</v>
+      </c>
+      <c r="U11">
+        <v>1584</v>
+      </c>
+      <c r="V11">
+        <v>1584</v>
+      </c>
+      <c r="W11">
+        <v>1584</v>
+      </c>
+      <c r="X11">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="9" cm="1">
+        <f t="array" ref="B13:X13">(B9:X9) +(B10:X10)+(_xlfn.ANCHORARRAY(B11):X11)</f>
+        <v>1.375</v>
+      </c>
+      <c r="C13">
+        <v>259.09632812500001</v>
+      </c>
+      <c r="D13">
+        <v>248.30381249999999</v>
+      </c>
+      <c r="E13">
+        <v>208</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>214</v>
+      </c>
+      <c r="H13">
+        <v>198</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13" s="13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>1584</v>
+      </c>
+      <c r="Q13">
+        <v>1584</v>
+      </c>
+      <c r="R13">
+        <v>1584.6</v>
+      </c>
+      <c r="S13">
+        <v>1804</v>
+      </c>
+      <c r="T13">
+        <v>1590.2</v>
+      </c>
+      <c r="U13">
+        <v>1619</v>
+      </c>
+      <c r="V13">
+        <v>2384</v>
+      </c>
+      <c r="W13">
+        <v>1782</v>
+      </c>
+      <c r="X13">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="9" cm="1">
+        <f t="array" ref="B15:X15">(1/22)*_xlfn.ANCHORARRAY($B$13)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C15">
+        <v>11.777105823863637</v>
+      </c>
+      <c r="D15">
+        <v>11.286536931818182</v>
+      </c>
+      <c r="E15">
+        <v>9.454545454545455</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>9.7272727272727284</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L15">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="P15">
+        <v>72</v>
+      </c>
+      <c r="Q15">
+        <v>72</v>
+      </c>
+      <c r="R15">
+        <v>72.027272727272731</v>
+      </c>
+      <c r="S15">
+        <v>82</v>
+      </c>
+      <c r="T15">
+        <v>72.281818181818181</v>
+      </c>
+      <c r="U15">
+        <v>73.590909090909093</v>
+      </c>
+      <c r="V15">
+        <v>108.36363636363636</v>
+      </c>
+      <c r="W15">
+        <v>81</v>
+      </c>
+      <c r="X15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <f>B13/22</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19">
+        <f>16*1.375</f>
+        <v>22</v>
+      </c>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20">
+        <f>1.375/22</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" cm="1">
+        <f t="array" ref="C21:X21">0.422675*Sheet1!$C$61:$X$61</f>
+        <v>40.154125000000001</v>
+      </c>
+      <c r="D21">
+        <v>38.886099999999999</v>
+      </c>
+      <c r="E21">
+        <v>2.8319225000000001</v>
+      </c>
+      <c r="F21">
+        <v>41.844825</v>
+      </c>
+      <c r="G21">
+        <v>41.844825</v>
+      </c>
+      <c r="H21">
+        <v>41.844825</v>
+      </c>
+      <c r="I21">
+        <v>41.844825</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>41.844825</v>
+      </c>
+      <c r="M21">
+        <v>41.844825</v>
+      </c>
+      <c r="N21">
+        <v>41.844825</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>41.844825</v>
+      </c>
+      <c r="Q21">
+        <v>41.844825</v>
+      </c>
+      <c r="R21">
+        <v>41.844825</v>
+      </c>
+      <c r="S21">
+        <v>41.844825</v>
+      </c>
+      <c r="T21">
+        <v>41.844825</v>
+      </c>
+      <c r="U21">
+        <v>41.844825</v>
+      </c>
+      <c r="V21">
+        <v>41.844825</v>
+      </c>
+      <c r="W21">
+        <v>41.844825</v>
+      </c>
+      <c r="X21">
+        <v>41.844825</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="M22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="K23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23">
+        <f>0.25/0.4</f>
+        <v>0.625</v>
+      </c>
+      <c r="N23">
+        <f>1/0.4</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24">
+        <f>1.375/16</f>
+        <v>8.59375E-2</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24">
+        <f>2.5/4</f>
+        <v>0.625</v>
+      </c>
+      <c r="O24">
+        <f>(1/4)/0.4</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25">
+        <f>1.375/(1.375*16)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="K26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="O27" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="O28">
+        <f>0.25/0.4</f>
+        <v>0.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>